--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value657.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value657.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.948956354171006</v>
+        <v>1.245289444923401</v>
       </c>
       <c r="B1">
-        <v>2.418798205355177</v>
+        <v>2.321049213409424</v>
       </c>
       <c r="C1">
-        <v>2.472642293211853</v>
+        <v>3.084941625595093</v>
       </c>
       <c r="D1">
-        <v>3.072029327394154</v>
+        <v>3.559198617935181</v>
       </c>
       <c r="E1">
-        <v>1.615537271117192</v>
+        <v>1.379878282546997</v>
       </c>
     </row>
   </sheetData>
